--- a/Variables generadas.xlsx
+++ b/Variables generadas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlozanoo\Documents\GitHub\PR-48-TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4446AF5-9D87-4A78-8C31-E1E78DA1E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE446B-A71F-4149-8CBF-031B248C7C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{8113A672-DF4D-406A-B4BE-25E48EBBDE3A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="212">
   <si>
     <t>id_indicadores_equipo_prepartido</t>
   </si>
@@ -658,6 +658,21 @@
   </si>
   <si>
     <t>Cálculo</t>
+  </si>
+  <si>
+    <t>Clases</t>
+  </si>
+  <si>
+    <t>resultado local</t>
+  </si>
+  <si>
+    <t>resultado visitante</t>
+  </si>
+  <si>
+    <t>resultado partido</t>
+  </si>
+  <si>
+    <t>jornada</t>
   </si>
 </sst>
 </file>
@@ -757,14 +772,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1115,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F03A10-2A98-494F-9AF2-43E655FEF87D}">
-  <dimension ref="A2:B171"/>
+  <dimension ref="A2:D175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,1096 +1142,1646 @@
     <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s">
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s">
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s">
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s">
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s">
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s">
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s">
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" t="s">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" t="s">
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" t="s">
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" t="s">
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" t="s">
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" t="s">
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" t="s">
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" t="s">
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" t="s">
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" t="s">
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" t="s">
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" t="s">
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" t="s">
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" t="s">
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" t="s">
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s">
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" t="s">
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" t="s">
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s">
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" t="s">
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" t="s">
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" t="s">
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" t="s">
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" t="s">
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" t="s">
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" t="s">
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" t="s">
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" t="s">
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" t="s">
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" t="s">
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" t="s">
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" t="s">
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" t="s">
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" t="s">
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" t="s">
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" t="s">
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" t="s">
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" t="s">
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" t="s">
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" t="s">
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" t="s">
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" t="s">
+      <c r="D69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" t="s">
+      <c r="D70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" t="s">
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" t="s">
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" t="s">
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" t="s">
+      <c r="D75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="D76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" t="s">
+      <c r="D77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" t="s">
+      <c r="D78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" t="s">
+      <c r="D79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="D80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" t="s">
+      <c r="D81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" t="s">
+      <c r="D82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" t="s">
+      <c r="D83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" t="s">
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" t="s">
+      <c r="D86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" t="s">
+      <c r="D87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="D88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" t="s">
+      <c r="D89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" t="s">
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" t="s">
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="D92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" t="s">
+      <c r="D93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" t="s">
+      <c r="D94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" t="s">
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" t="s">
+      <c r="D96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" t="s">
+      <c r="D97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" t="s">
+      <c r="D98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" t="s">
+      <c r="D99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="D100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" t="s">
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" t="s">
+      <c r="D102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" t="s">
+      <c r="D103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" t="s">
+      <c r="D104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" t="s">
+      <c r="D105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" t="s">
+      <c r="D106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" t="s">
+      <c r="D107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" t="s">
+      <c r="D108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" t="s">
+      <c r="D109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" t="s">
+      <c r="D110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-      <c r="B111" t="s">
+      <c r="D111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" t="s">
+      <c r="D112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" t="s">
+      <c r="D113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" t="s">
+      <c r="D114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" t="s">
+      <c r="D115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="D116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" t="s">
+      <c r="D117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" t="s">
+      <c r="D118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" t="s">
+      <c r="D119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="D120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" t="s">
+      <c r="D121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
+      <c r="B122" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" t="s">
+      <c r="D122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
+      <c r="B123" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" t="s">
+      <c r="D123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
+      <c r="B124" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" t="s">
+      <c r="D124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
+      <c r="B125" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" t="s">
+      <c r="D125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+      <c r="B126" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" t="s">
+      <c r="D126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7"/>
+      <c r="B127" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" t="s">
+      <c r="D127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7"/>
+      <c r="B128" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="D128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" t="s">
+      <c r="D129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" t="s">
+      <c r="D130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+      <c r="B131" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" t="s">
+      <c r="D131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" t="s">
+      <c r="D132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" t="s">
+      <c r="D133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+      <c r="B134" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" t="s">
+      <c r="D134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+      <c r="B135" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" t="s">
+      <c r="D135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+      <c r="B136" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+      <c r="D136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" t="s">
+      <c r="D137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7"/>
+      <c r="B138" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
-      <c r="B138" t="s">
+      <c r="D138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+      <c r="B139" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
-      <c r="B139" t="s">
+      <c r="D139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="B140" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-      <c r="B140" t="s">
+      <c r="D140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7"/>
+      <c r="B141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" t="s">
+      <c r="D141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
+      <c r="B142" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" t="s">
+      <c r="D142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
+      <c r="B143" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" t="s">
+      <c r="D143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
+      <c r="B144" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
+      <c r="D144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="B145" t="s">
+      <c r="D145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" t="s">
+      <c r="D146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="B147" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" t="s">
+      <c r="D147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" t="s">
+      <c r="D148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="B149" t="s">
+      <c r="D149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="B150" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
-      <c r="B150" t="s">
+      <c r="D150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="B151" t="s">
+      <c r="D151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
-      <c r="B152" t="s">
+      <c r="D152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-      <c r="B153" t="s">
+      <c r="D153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" t="s">
+      <c r="D154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="B155" t="s">
+      <c r="D155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" t="s">
+      <c r="D156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="B157" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" t="s">
+      <c r="D157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" t="s">
+      <c r="D158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
-      <c r="B159" t="s">
+      <c r="D159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
+      <c r="D160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
-      <c r="B161" t="s">
+      <c r="D161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="6"/>
-      <c r="B162" t="s">
+      <c r="D162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+      <c r="B163" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="6"/>
-      <c r="B163" t="s">
+      <c r="D163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
-      <c r="B164" t="s">
+      <c r="D164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="6"/>
-      <c r="B165" t="s">
+      <c r="D165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="6"/>
-      <c r="B166" t="s">
+      <c r="D166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
-      <c r="B167" t="s">
+      <c r="D167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="6"/>
-      <c r="B168" t="s">
+      <c r="D168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="6"/>
-      <c r="B169" t="s">
+      <c r="D169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="6"/>
-      <c r="B170" t="s">
+      <c r="D170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="B171" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
-      <c r="B171" t="s">
+      <c r="D171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+      <c r="B172" t="s">
         <v>169</v>
       </c>
+      <c r="D172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B173" t="s">
+        <v>208</v>
+      </c>
+      <c r="D173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+      <c r="B174" t="s">
+        <v>209</v>
+      </c>
+      <c r="D174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="6"/>
+      <c r="B175" t="s">
+        <v>210</v>
+      </c>
+      <c r="D175">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A160:A171"/>
-    <mergeCell ref="A100:A115"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="A4:A19"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="A136:A143"/>
-    <mergeCell ref="A144:A159"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
+  <mergeCells count="23">
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A161:A172"/>
+    <mergeCell ref="A101:A116"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
